--- a/EJ4/Derivador/Mediciones/Mediciones Derivador.xlsx
+++ b/EJ4/Derivador/Mediciones/Mediciones Derivador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Indice" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,11 @@
     <sheet name="Impedancia de entrada" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Nº</t>
   </si>
@@ -162,7 +157,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>foto</t>
     </r>
@@ -172,7 +166,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> de cada una con el osciloscopio y guardar en el pendrive</t>
     </r>
@@ -233,7 +226,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color indexed="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -251,7 +244,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="0"/>
+        <color indexed="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -261,7 +254,7 @@
       <rPr>
         <b/>
         <sz val="7"/>
-        <color theme="0"/>
+        <color indexed="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -288,7 +281,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>foto</t>
     </r>
@@ -298,7 +290,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> de cada una con el osciloscopio y guardar en el pendrive. </t>
     </r>
@@ -309,7 +300,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Acordate que salgan los Quick Measure!</t>
     </r>
@@ -320,12 +310,15 @@
   <si>
     <t>2. Foto zoom del transitorio y csv</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,9 +327,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,15 +386,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -378,28 +398,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -458,16 +456,40 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,56 +523,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -567,31 +539,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -616,50 +566,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -670,12 +576,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -695,7 +603,73 @@
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,11 +682,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="mediumDashed">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -752,6 +741,15 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -828,296 +826,260 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1185,32 +1147,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1486,7 +1422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C03C-4E5F-A68B-85F1E463D1D3}"/>
+              <c16:uniqueId val="{00000000-DD35-4F88-B421-6E46806D6760}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,11 +1434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1758461631"/>
-        <c:axId val="1758469535"/>
+        <c:axId val="1759333056"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1758461631"/>
+        <c:axId val="1759333056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1539,30 +1475,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758469535"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1758469535"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,16 +1550,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758461631"/>
+        <c:crossAx val="1759333056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1731,32 +1664,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2001,7 +1908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA8D-4945-94AC-6E98E3F980CA}"/>
+              <c16:uniqueId val="{00000000-A31E-479E-9DC8-03343088C71C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2013,11 +1920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1731354575"/>
-        <c:axId val="1731353743"/>
+        <c:axId val="1759335968"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1731354575"/>
+        <c:axId val="1759335968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2054,30 +1961,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731353743"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731353743"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,16 +2036,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731354575"/>
+        <c:crossAx val="1759335968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2237,7 +2141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2246,32 +2149,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2342,7 +2219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Respuesta en frecuencia (PCB)'!$B$3:$B$40</c:f>
+              <c:f>'Respuesta en frecuencia (PCB)'!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2420,7 +2297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Respuesta en frecuencia (PCB)'!$F$3:$F$40</c:f>
+              <c:f>'Respuesta en frecuencia (PCB)'!$F$2:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2499,7 +2376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDDA-4AA4-9184-6B6BBB1E1AF2}"/>
+              <c16:uniqueId val="{00000000-4930-492C-A260-E00265362EE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2511,11 +2388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1758461631"/>
-        <c:axId val="1758469535"/>
+        <c:axId val="1759334720"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1758461631"/>
+        <c:axId val="1759334720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,30 +2429,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758469535"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1758469535"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,16 +2504,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758461631"/>
+        <c:crossAx val="1759334720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2735,7 +2609,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2744,32 +2617,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2782,7 +2629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Respuesta en frecuencia (PCB)'!$D$3</c:f>
+              <c:f>'Respuesta en frecuencia (PCB)'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2851,7 +2698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Respuesta en frecuencia (PCB)'!$B$3:$B$40</c:f>
+              <c:f>'Respuesta en frecuencia (PCB)'!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2929,7 +2776,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Respuesta en frecuencia (PCB)'!$D$3:$D$40</c:f>
+              <c:f>'Respuesta en frecuencia (PCB)'!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -3008,7 +2855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AA3-42B9-B2C4-097BE30DC8DA}"/>
+              <c16:uniqueId val="{00000000-3DEC-4357-8A3D-B9C1F1B860F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3020,11 +2867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1731354575"/>
-        <c:axId val="1731353743"/>
+        <c:axId val="1759329728"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1731354575"/>
+        <c:axId val="1759329728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3061,30 +2908,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731353743"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731353743"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,16 +2983,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731354575"/>
+        <c:crossAx val="1759329728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3257,32 +3101,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3372,25 +3190,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>200</c:v>
@@ -3399,40 +3217,46 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,25 +3271,25 @@
                   <c:v>768552.6315789473</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>630337.07865168538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>498113.20754716982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>370721.15384615387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274256.75675675675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213888.88888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157016.12903225806</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>78571.42857142858</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7904.1916167664676</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>890.10989010989033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.64705882352942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.2592592592593</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>370721.15384615387</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>157016.12903225806</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>39641.185647425897</c:v>
@@ -3474,43 +3298,46 @@
                   <c:v>16389.032591826177</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>7904.1916167664676</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4220.7792207792209</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1683.4303864478559</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>890.10989010989033</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>447.14285714285705</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>167.21250000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>498113.20754716982</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>213888.88888888888</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>630337.07865168538</c:v>
+                  <c:v>59.64705882352942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>274256.75675675675</c:v>
+                  <c:v>42.730769230769241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.730769230769241</c:v>
+                  <c:v>97.51351351351353</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.51351351351353</c:v>
+                  <c:v>124.88235294117646</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>166.83333333333331</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>239.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>242.73333333333338</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
+                <c:pt idx="23">
+                  <c:v>267.2592592592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7420-4CBE-9B9E-D0C845B03D6C}"/>
+              <c16:uniqueId val="{00000000-5D98-4200-B6F3-C985C8FB605D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3530,11 +3357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1731350415"/>
-        <c:axId val="1731345007"/>
+        <c:axId val="1757856416"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1731350415"/>
+        <c:axId val="1757856416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3571,30 +3398,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731345007"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731345007"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,16 +3473,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731350415"/>
+        <c:crossAx val="1757856416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3847,25 +3671,25 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>200</c:v>
@@ -3874,40 +3698,46 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>200000</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>300000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,19 +3752,19 @@
                   <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-90</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>-90</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-100</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>-190</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-90</c:v>
@@ -3949,7 +3779,7 @@
                   <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-100</c:v>
+                  <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-90</c:v>
@@ -3958,34 +3788,37 @@
                   <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>-90</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-86</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-90</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-88</c:v>
+                  <c:v>-85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-90</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-115</c:v>
+                  <c:v>-59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-121</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-140</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-170</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,7 +3826,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6544-4288-9B6D-43F22383E303}"/>
+              <c16:uniqueId val="{00000000-4ED0-4509-AA53-28FCF5FBE47E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4005,11 +3838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1731343343"/>
-        <c:axId val="1731355407"/>
+        <c:axId val="1757856832"/>
+        <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1731343343"/>
+        <c:axId val="1757856832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4046,30 +3879,28 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C0C0C0"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731355407"/>
+        <c:crossAx val="1"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731355407"/>
+        <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,16 +3954,15 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731343343"/>
+        <c:crossAx val="1757856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4183,3258 +4013,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7452,8 +4030,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1025" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7470,20 +4050,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="1026" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7505,19 +4087,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2049" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7537,19 +4119,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2050" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7574,20 +4156,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>353787</xdr:rowOff>
+      <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>40819</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3073" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7604,20 +4188,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3074" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7935,10 +4521,10 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53"/>
+      <c r="H1" s="61"/>
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
@@ -7962,10 +4548,10 @@
       <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="59"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
@@ -7987,8 +4573,8 @@
       <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
@@ -8012,8 +4598,8 @@
       <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
@@ -8037,10 +4623,10 @@
       <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="59"/>
       <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
@@ -8064,8 +4650,8 @@
       <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
@@ -8091,75 +4677,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{B0C7C01C-09ED-4DFA-9355-C39EC5A8E4F5}">
-            <xm:f>NOT(ISERROR(SEARCH($J$7,F2)))</xm:f>
-            <xm:f>$J$7</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{70E80A6E-B312-4381-9EE0-A3F83AF7A079}">
-            <xm:f>NOT(ISERROR(SEARCH($J$6,F2)))</xm:f>
-            <xm:f>$J$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{65B62A68-17FC-4008-BCE3-2BAAB211CFB8}">
-            <xm:f>NOT(ISERROR(SEARCH($J$5,F2)))</xm:f>
-            <xm:f>$J$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2" tint="-0.499984740745262"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{DF4504AA-DD32-43EF-BE0F-47441E9AE52B}">
-            <xm:f>NOT(ISERROR(SEARCH($J$4,F2)))</xm:f>
-            <xm:f>$J$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="7" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{13309968-575D-4617-A158-B03AD5CACD13}">
-            <xm:f>NOT(ISERROR(SEARCH($J$4,F2)))</xm:f>
-            <xm:f>$J$4</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{F6F46C59-11C9-4B00-B296-0FE492E365C8}">
-            <xm:f>NOT(ISERROR(SEARCH($J$2,F2)))</xm:f>
-            <xm:f>$J$2</xm:f>
-            <x14:dxf/>
-          </x14:cfRule>
-          <xm:sqref>F2:F6</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8181,20 +4698,20 @@
   <sheetData>
     <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="3:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C3" s="57"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="22" t="s">
         <v>57</v>
       </c>
@@ -8333,18 +4850,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -8909,11 +5426,11 @@
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="11">
-        <f t="shared" ref="E27:E29" si="2">IF(ISBLANK(C27), , C27/A27)</f>
+        <f>IF(ISBLANK(C27), , C27/A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="26">
-        <f t="shared" ref="F27:F40" si="3">IF(E27 = 0, , 20*LOG10(E27))</f>
+        <f t="shared" ref="F27:F40" si="2">IF(E27 = 0, , 20*LOG10(E27))</f>
         <v>0</v>
       </c>
     </row>
@@ -8923,11 +5440,11 @@
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="11">
+        <f>IF(ISBLANK(C28), , C28/A28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8937,11 +5454,11 @@
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="11">
+        <f>IF(ISBLANK(C29), , C29/A29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8951,11 +5468,11 @@
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="11">
-        <f t="shared" ref="E30:E40" si="4">IF(ISBLANK(C30), , C30/A30)</f>
+        <f t="shared" ref="E30:E40" si="3">IF(ISBLANK(C30), , C30/A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8965,11 +5482,11 @@
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8979,11 +5496,11 @@
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8993,11 +5510,11 @@
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
       <c r="E33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9007,11 +5524,11 @@
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9021,11 +5538,11 @@
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9035,11 +5552,11 @@
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9049,11 +5566,11 @@
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
       <c r="E37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,11 +5580,11 @@
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
       <c r="E38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F38" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9077,11 +5594,11 @@
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9091,18 +5608,15 @@
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
       <c r="E40" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="F40" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F26">
-    <sortCondition ref="B3:B26"/>
-  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -9115,10 +5629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9129,507 +5643,519 @@
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>19.21</v>
+      </c>
+      <c r="B2" s="46">
+        <v>10</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D2" s="47">
+        <v>-91</v>
+      </c>
+      <c r="E2" s="46">
+        <f t="shared" ref="E2:E24" si="0">IF(ISBLANK(C2), , C2/A2)</f>
+        <v>7.2358146798542425E-3</v>
+      </c>
+      <c r="F2" s="47">
+        <f t="shared" ref="F2:F24" si="1">IF(E2 = 0, , 20*LOG10(E2))</f>
+        <v>-42.810251292151975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
-        <v>19.21</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B3" s="46">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3" s="25">
-        <v>0.13900000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D3" s="47">
-        <v>-91</v>
+        <v>-92</v>
       </c>
       <c r="E3" s="46">
-        <f t="shared" ref="E3:E40" si="0">IF(ISBLANK(C3), , C3/A3)</f>
-        <v>7.2358146798542425E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.6180904522613064E-2</v>
       </c>
       <c r="F3" s="47">
-        <f t="shared" ref="F3:F40" si="1">IF(E3 = 0, , 20*LOG10(E3))</f>
-        <v>-42.810251292151975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>-28.830411599568766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>19.899999999999999</v>
       </c>
       <c r="B4" s="46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" s="25">
-        <v>0.72</v>
+        <v>1.43</v>
       </c>
       <c r="D4" s="47">
         <v>-92</v>
       </c>
       <c r="E4" s="46">
         <f t="shared" si="0"/>
-        <v>3.6180904522613064E-2</v>
+        <v>7.1859296482412058E-2</v>
       </c>
       <c r="F4" s="47">
         <f t="shared" si="1"/>
-        <v>-28.830411599568766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-22.870340778892899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>19.899999999999999</v>
       </c>
       <c r="B5" s="46">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C5" s="25">
-        <v>1.43</v>
+        <v>7.07</v>
       </c>
       <c r="D5" s="47">
-        <v>-92</v>
+        <v>-90</v>
       </c>
       <c r="E5" s="46">
         <f t="shared" si="0"/>
-        <v>7.1859296482412058E-2</v>
+        <v>0.3552763819095478</v>
       </c>
       <c r="F5" s="47">
         <f t="shared" si="1"/>
-        <v>-22.870340778892899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-8.9886732522561434</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>19.899999999999999</v>
       </c>
       <c r="B6" s="46">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="25">
-        <v>7.07</v>
+        <v>14.06</v>
       </c>
       <c r="D6" s="47">
         <v>-90</v>
       </c>
       <c r="E6" s="46">
         <f t="shared" si="0"/>
-        <v>0.3552763819095478</v>
+        <v>0.70653266331658304</v>
       </c>
       <c r="F6" s="47">
         <f t="shared" si="1"/>
-        <v>-8.9886732522561434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.0173551145180282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
-        <v>19.899999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="B7" s="46">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C7" s="25">
-        <v>14.06</v>
+        <v>27.6</v>
       </c>
       <c r="D7" s="47">
         <v>-90</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="0"/>
-        <v>0.70653266331658304</v>
+        <v>3.5384615384615388</v>
       </c>
       <c r="F7" s="47">
         <f t="shared" si="1"/>
-        <v>-3.0173551145180282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.976289587494747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="B8" s="46">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="25">
-        <v>27.6</v>
+        <v>29.6</v>
       </c>
       <c r="D8" s="47">
         <v>-90</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" si="0"/>
-        <v>3.5384615384615388</v>
+        <v>7.0476190476190474</v>
       </c>
       <c r="F8" s="47">
         <f t="shared" si="1"/>
-        <v>10.976289587494747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.960848413220763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
-        <v>4.2</v>
+        <v>0.98</v>
       </c>
       <c r="B9" s="46">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C9" s="25">
-        <v>29.6</v>
+        <v>12.81</v>
       </c>
       <c r="D9" s="47">
         <v>-90</v>
       </c>
       <c r="E9" s="46">
         <f t="shared" si="0"/>
-        <v>7.0476190476190474</v>
+        <v>13.071428571428573</v>
       </c>
       <c r="F9" s="47">
         <f t="shared" si="1"/>
-        <v>16.960848413220763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.326461081043831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="B10" s="46">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="C10" s="25">
-        <v>12.81</v>
+        <v>26.7</v>
       </c>
       <c r="D10" s="47">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" si="0"/>
-        <v>13.071428571428573</v>
+        <v>35.6</v>
       </c>
       <c r="F10" s="47">
         <f t="shared" si="1"/>
-        <v>22.326461081043831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31.028999959457501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
-        <v>0.75</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="B11" s="46">
         <v>50000</v>
       </c>
       <c r="C11" s="25">
-        <v>26.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D11" s="47">
         <v>-91</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" si="0"/>
-        <v>35.6</v>
+        <v>34.024896265560166</v>
       </c>
       <c r="F11" s="47">
         <f t="shared" si="1"/>
-        <v>31.028999959457501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30.635936196176967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
-        <v>0.48199999999999998</v>
+        <v>0.251</v>
       </c>
       <c r="B12" s="46">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="25">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D12" s="47">
-        <v>-91</v>
+        <v>-90</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" si="0"/>
-        <v>34.024896265560166</v>
+        <v>68.127490039840637</v>
       </c>
       <c r="F12" s="47">
         <f t="shared" si="1"/>
-        <v>30.635936196176967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.666447778222313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>0.251</v>
+        <v>0.13</v>
       </c>
       <c r="B13" s="46">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="C13" s="25">
-        <v>17.100000000000001</v>
+        <v>13.61</v>
       </c>
       <c r="D13" s="47">
-        <v>-90</v>
+        <v>-88</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" si="0"/>
-        <v>68.127490039840637</v>
+        <v>104.69230769230768</v>
       </c>
       <c r="F13" s="47">
         <f t="shared" si="1"/>
-        <v>36.666447778222313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40.398295457929962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>0.13</v>
+        <v>0.113</v>
       </c>
       <c r="B14" s="46">
-        <v>100000</v>
+        <v>110000</v>
       </c>
       <c r="C14" s="25">
-        <v>13.61</v>
+        <v>15.72</v>
       </c>
       <c r="D14" s="47">
-        <v>-88</v>
+        <v>-90</v>
       </c>
       <c r="E14" s="46">
         <f t="shared" si="0"/>
-        <v>104.69230769230768</v>
+        <v>139.11504424778761</v>
       </c>
       <c r="F14" s="47">
         <f t="shared" si="1"/>
-        <v>40.398295457929962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42.867481964399381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>0.113</v>
+        <v>2.7E-2</v>
       </c>
       <c r="B15" s="46">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="C15" s="25">
-        <v>15.72</v>
+        <v>7.11</v>
       </c>
       <c r="D15" s="47">
-        <v>-90</v>
+        <f>-360+55</f>
+        <v>-305</v>
       </c>
       <c r="E15" s="46">
         <f t="shared" si="0"/>
-        <v>139.11504424778761</v>
+        <v>263.33333333333337</v>
       </c>
       <c r="F15" s="47">
         <f t="shared" si="1"/>
-        <v>42.867481964399381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48.410116731415584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <v>2.7E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="B16" s="46">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="C16" s="25">
-        <v>7.11</v>
+        <v>13.72</v>
       </c>
       <c r="D16" s="47">
+        <f>270-360</f>
+        <v>-90</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>175.89743589743591</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="1"/>
+        <v>44.90519017360505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="B17" s="46">
+        <v>130000</v>
+      </c>
+      <c r="C17" s="25">
+        <v>6.69</v>
+      </c>
+      <c r="D17" s="47">
+        <v>-75</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="0"/>
+        <v>202.72727272727272</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="1"/>
+        <v>46.138243557798717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B18" s="46">
+        <v>200000</v>
+      </c>
+      <c r="C18" s="25">
+        <v>7.24</v>
+      </c>
+      <c r="D18" s="47">
         <f>-360+55</f>
         <v>-305</v>
       </c>
-      <c r="E16" s="46">
-        <f t="shared" si="0"/>
-        <v>263.33333333333337</v>
-      </c>
-      <c r="F16" s="47">
-        <f t="shared" si="1"/>
-        <v>48.410116731415584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>7.8E-2</v>
-      </c>
-      <c r="B17" s="46">
-        <v>120000</v>
-      </c>
-      <c r="C17" s="25">
-        <v>13.72</v>
-      </c>
-      <c r="D17" s="47">
-        <f>270-360</f>
-        <v>-90</v>
-      </c>
-      <c r="E17" s="46">
-        <f t="shared" si="0"/>
-        <v>175.89743589743591</v>
-      </c>
-      <c r="F17" s="47">
-        <f t="shared" si="1"/>
-        <v>44.90519017360505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="B18" s="46">
-        <v>130000</v>
-      </c>
-      <c r="C18" s="25">
-        <v>6.69</v>
-      </c>
-      <c r="D18" s="47">
-        <v>-75</v>
-      </c>
       <c r="E18" s="46">
         <f t="shared" si="0"/>
-        <v>202.72727272727272</v>
+        <v>160.88888888888889</v>
       </c>
       <c r="F18" s="47">
         <f t="shared" si="1"/>
-        <v>46.138243557798717</v>
+        <v>44.130521048436066</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
-        <v>4.4999999999999998E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="B19" s="46">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="C19" s="25">
-        <v>7.24</v>
+        <v>6.67</v>
       </c>
       <c r="D19" s="47">
+        <f>-360+60</f>
+        <v>-300</v>
+      </c>
+      <c r="E19" s="46">
+        <f t="shared" si="0"/>
+        <v>40.424242424242422</v>
+      </c>
+      <c r="F19" s="47">
+        <f t="shared" si="1"/>
+        <v>32.132837794052854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>0.318</v>
+      </c>
+      <c r="B20" s="46">
+        <v>500000</v>
+      </c>
+      <c r="C20" s="25">
+        <v>5.75</v>
+      </c>
+      <c r="D20" s="47">
         <f>-360+55</f>
         <v>-305</v>
       </c>
-      <c r="E19" s="46">
-        <f t="shared" si="0"/>
-        <v>160.88888888888889</v>
-      </c>
-      <c r="F19" s="47">
-        <f t="shared" si="1"/>
-        <v>44.130521048436066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="B20" s="46">
-        <v>350000</v>
-      </c>
-      <c r="C20" s="25">
-        <v>6.67</v>
-      </c>
-      <c r="D20" s="47">
-        <f>-360+60</f>
-        <v>-300</v>
-      </c>
       <c r="E20" s="46">
         <f t="shared" si="0"/>
-        <v>40.424242424242422</v>
+        <v>18.081761006289309</v>
       </c>
       <c r="F20" s="47">
         <f t="shared" si="1"/>
-        <v>32.132837794052854</v>
+        <v>25.144814494103954</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <v>0.318</v>
+        <v>0.22</v>
       </c>
       <c r="B21" s="46">
-        <v>500000</v>
+        <v>750000</v>
       </c>
       <c r="C21" s="25">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="D21" s="47">
-        <f>-360+55</f>
-        <v>-305</v>
+        <f>-360+41</f>
+        <v>-319</v>
       </c>
       <c r="E21" s="46">
         <f t="shared" si="0"/>
-        <v>18.081761006289309</v>
+        <v>12.5</v>
       </c>
       <c r="F21" s="47">
         <f t="shared" si="1"/>
-        <v>25.144814494103954</v>
+        <v>21.938200260161128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
-        <v>0.22</v>
+        <v>0.315</v>
       </c>
       <c r="B22" s="46">
-        <v>750000</v>
+        <v>1000000</v>
       </c>
       <c r="C22" s="25">
-        <v>2.75</v>
+        <v>2.19</v>
       </c>
       <c r="D22" s="47">
-        <f>-360+41</f>
-        <v>-319</v>
+        <f>-360+37</f>
+        <v>-323</v>
       </c>
       <c r="E22" s="46">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>6.9523809523809526</v>
       </c>
       <c r="F22" s="47">
         <f t="shared" si="1"/>
-        <v>21.938200260161128</v>
+        <v>16.842671221010356</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
-        <v>0.315</v>
+        <v>0.4</v>
       </c>
       <c r="B23" s="46">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="C23" s="25">
-        <v>2.19</v>
+        <v>0.8</v>
       </c>
       <c r="D23" s="47">
-        <f>-360+37</f>
-        <v>-323</v>
+        <f>-360+24</f>
+        <v>-336</v>
       </c>
       <c r="E23" s="46">
         <f t="shared" si="0"/>
-        <v>6.9523809523809526</v>
+        <v>2</v>
       </c>
       <c r="F23" s="47">
         <f t="shared" si="1"/>
-        <v>16.842671221010356</v>
+        <v>6.0205999132796242</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9637,46 +6163,31 @@
         <v>0.4</v>
       </c>
       <c r="B24" s="46">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="C24" s="25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D24" s="47">
-        <f>-360+24</f>
-        <v>-336</v>
+        <f>-360+20</f>
+        <v>-340</v>
       </c>
       <c r="E24" s="46">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="47">
         <f t="shared" si="1"/>
-        <v>6.0205999132796242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="B25" s="46">
-        <v>3000000</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="47">
-        <f>-360+20</f>
-        <v>-340</v>
-      </c>
-      <c r="E25" s="46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A25" s="25"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -9790,20 +6301,7 @@
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9826,13 +6324,13 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -9852,12 +6350,12 @@
       <c r="F3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
@@ -9875,10 +6373,10 @@
       <c r="F4" s="30">
         <v>0</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
@@ -9896,10 +6394,10 @@
       <c r="F5" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
@@ -9987,13 +6485,13 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -10013,132 +6511,132 @@
       <c r="F3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="51">
         <v>0.3</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="51">
         <v>1000</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="51">
         <v>50</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="54">
         <v>0</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="53">
         <v>0.3</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="53">
         <v>10000</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="53">
         <v>50</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="55">
         <v>0</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="53">
         <v>0.3</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="53">
         <v>10000</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="53">
         <v>80</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="55">
         <v>0</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="H6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="53">
         <v>6</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="53">
         <v>1000</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="53">
         <v>50</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="55">
         <v>0</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="53">
         <v>3</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="53">
         <v>10000</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="53">
         <v>50</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="53">
         <v>3</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="53">
         <v>10000</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="53">
         <v>80</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="55">
         <v>0</v>
       </c>
     </row>
@@ -10158,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10177,24 +6675,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="58" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="72" t="s">
+      <c r="F1" s="89"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -10239,7 +6737,7 @@
       <c r="D3" s="37">
         <v>-30</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="56">
         <v>330000</v>
       </c>
       <c r="F3" s="39">
@@ -10248,11 +6746,11 @@
       <c r="G3" s="40">
         <v>60</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="57">
         <f>F3/E3</f>
         <v>2.3030303030303031E-5</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="57">
         <f>C3/H3</f>
         <v>768552.6315789473</v>
       </c>
@@ -10264,195 +6762,194 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="45">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C4" s="44">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="D4" s="39">
-        <v>-80</v>
-      </c>
-      <c r="E4" s="88">
+        <v>-28</v>
+      </c>
+      <c r="E4" s="38">
         <v>330000</v>
       </c>
       <c r="F4" s="39">
-        <v>18.899999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G4" s="40">
-        <v>10</v>
-      </c>
-      <c r="H4" s="89">
-        <f t="shared" ref="H4:H40" si="0">F4/E4</f>
-        <v>5.7272727272727267E-5</v>
-      </c>
-      <c r="I4" s="89">
-        <f t="shared" ref="I4:I39" si="1">C4/H4</f>
-        <v>78571.42857142858</v>
+        <v>60</v>
+      </c>
+      <c r="H4" s="57">
+        <f>F4/E4</f>
+        <v>2.6969696969696972E-5</v>
+      </c>
+      <c r="I4" s="57">
+        <f>C4/H4</f>
+        <v>630337.07865168538</v>
       </c>
       <c r="J4" s="41">
-        <f t="shared" ref="J4:J40" si="2">D4-G4</f>
-        <v>-90</v>
+        <f>D4-G4</f>
+        <v>-88</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="45">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="C5" s="44">
-        <v>8.8000000000000007</v>
+        <v>16</v>
       </c>
       <c r="D5" s="39">
-        <v>-60</v>
+        <v>-32</v>
       </c>
       <c r="E5" s="38">
-        <v>15000</v>
+        <v>330000</v>
       </c>
       <c r="F5" s="39">
-        <v>16.7</v>
+        <v>10.6</v>
       </c>
       <c r="G5" s="40">
-        <v>30</v>
-      </c>
-      <c r="H5" s="89">
-        <f t="shared" si="0"/>
-        <v>1.1133333333333334E-3</v>
-      </c>
-      <c r="I5" s="89">
-        <f t="shared" si="1"/>
-        <v>7904.1916167664676</v>
+        <v>54</v>
+      </c>
+      <c r="H5" s="57">
+        <f>F5/E5</f>
+        <v>3.2121212121212122E-5</v>
+      </c>
+      <c r="I5" s="57">
+        <f>C5/H5</f>
+        <v>498113.20754716982</v>
       </c>
       <c r="J5" s="41">
-        <f t="shared" si="2"/>
-        <v>-90</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="C6" s="44">
-        <v>1.08</v>
+        <v>7.01</v>
       </c>
       <c r="D6" s="39">
-        <v>-79</v>
+        <v>-40</v>
       </c>
       <c r="E6" s="38">
-        <v>15000</v>
+        <v>330000</v>
       </c>
       <c r="F6" s="39">
-        <v>18.2</v>
+        <v>6.24</v>
       </c>
       <c r="G6" s="40">
-        <v>20</v>
-      </c>
-      <c r="H6" s="89">
-        <f t="shared" si="0"/>
-        <v>1.2133333333333332E-3</v>
-      </c>
-      <c r="I6" s="89">
-        <f t="shared" si="1"/>
-        <v>890.10989010989033</v>
+        <v>50</v>
+      </c>
+      <c r="H6" s="57">
+        <f>F6/E6</f>
+        <v>1.8909090909090909E-5</v>
+      </c>
+      <c r="I6" s="57">
+        <f>C6/H6</f>
+        <v>370721.15384615387</v>
       </c>
       <c r="J6" s="41">
-        <f t="shared" si="2"/>
-        <v>-99</v>
+        <f>D6-G6</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="45">
-        <v>100000</v>
+        <v>27</v>
       </c>
       <c r="C7" s="44">
-        <v>0.13</v>
+        <v>12.3</v>
       </c>
       <c r="D7" s="39">
+        <v>-50</v>
+      </c>
+      <c r="E7" s="38">
+        <v>330000</v>
+      </c>
+      <c r="F7" s="39">
+        <v>14.8</v>
+      </c>
+      <c r="G7" s="40">
+        <v>40</v>
+      </c>
+      <c r="H7" s="57">
+        <f>F7/E7</f>
+        <v>4.4848484848484849E-5</v>
+      </c>
+      <c r="I7" s="57">
+        <f>C7/H7</f>
+        <v>274256.75675675675</v>
+      </c>
+      <c r="J7" s="41">
+        <f>D7-G7</f>
         <v>-90</v>
-      </c>
-      <c r="E7" s="38">
-        <v>390</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.85</v>
-      </c>
-      <c r="G7" s="40">
-        <v>10</v>
-      </c>
-      <c r="H7" s="89">
-        <f t="shared" si="0"/>
-        <v>2.1794871794871794E-3</v>
-      </c>
-      <c r="I7" s="89">
-        <f t="shared" si="1"/>
-        <v>59.64705882352942</v>
-      </c>
-      <c r="J7" s="41">
-        <f t="shared" si="2"/>
-        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45">
-        <v>1000000</v>
+        <v>35</v>
       </c>
       <c r="C8" s="44">
-        <v>0.32800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D8" s="39">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="E8" s="38">
-        <v>22</v>
+        <v>330000</v>
       </c>
       <c r="F8" s="39">
-        <v>2.7E-2</v>
+        <v>16.2</v>
       </c>
       <c r="G8" s="40">
-        <v>190</v>
-      </c>
-      <c r="H8" s="89">
-        <f t="shared" si="0"/>
-        <v>1.2272727272727272E-3</v>
-      </c>
-      <c r="I8" s="89">
-        <f t="shared" si="1"/>
-        <v>267.2592592592593</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="57">
+        <f>F8/E8</f>
+        <v>4.9090909090909091E-5</v>
+      </c>
+      <c r="I8" s="57">
+        <f>C8/H8</f>
+        <v>213888.88888888888</v>
       </c>
       <c r="J8" s="41">
-        <f t="shared" si="2"/>
-        <v>-190</v>
+        <f>D8-G8</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="45">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C9" s="44">
-        <v>7.01</v>
+        <v>4.13</v>
       </c>
       <c r="D9" s="39">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="E9" s="38">
         <v>330000</v>
       </c>
       <c r="F9" s="39">
-        <v>6.24</v>
+        <v>8.68</v>
       </c>
       <c r="G9" s="40">
-        <v>50</v>
-      </c>
-      <c r="H9" s="89">
+        <v>30</v>
+      </c>
+      <c r="H9" s="57">
         <f>F9/E9</f>
-        <v>1.8909090909090909E-5</v>
-      </c>
-      <c r="I9" s="89">
-        <f t="shared" si="1"/>
-        <v>370721.15384615387</v>
+        <v>2.6303030303030303E-5</v>
+      </c>
+      <c r="I9" s="57">
+        <f>C9/H9</f>
+        <v>157016.12903225806</v>
       </c>
       <c r="J9" s="41">
         <f>D9-G9</f>
@@ -10462,33 +6959,33 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C10" s="44">
-        <v>4.13</v>
+        <v>4.5</v>
       </c>
       <c r="D10" s="39">
-        <v>-60</v>
-      </c>
-      <c r="E10" s="38">
+        <v>-80</v>
+      </c>
+      <c r="E10" s="56">
         <v>330000</v>
       </c>
       <c r="F10" s="39">
-        <v>8.68</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G10" s="40">
-        <v>30</v>
-      </c>
-      <c r="H10" s="89">
-        <f t="shared" si="0"/>
-        <v>2.6303030303030303E-5</v>
-      </c>
-      <c r="I10" s="89">
-        <f t="shared" si="1"/>
-        <v>157016.12903225806</v>
+        <v>10</v>
+      </c>
+      <c r="H10" s="57">
+        <f>F10/E10</f>
+        <v>5.7272727272727267E-5</v>
+      </c>
+      <c r="I10" s="57">
+        <f>C10/H10</f>
+        <v>78571.42857142858</v>
       </c>
       <c r="J10" s="41">
-        <f t="shared" si="2"/>
+        <f>D10-G10</f>
         <v>-90</v>
       </c>
     </row>
@@ -10512,16 +7009,16 @@
       <c r="G11" s="40">
         <v>0</v>
       </c>
-      <c r="H11" s="89">
-        <f t="shared" si="0"/>
+      <c r="H11" s="57">
+        <f>F11/E11</f>
         <v>5.8272727272727271E-5</v>
       </c>
-      <c r="I11" s="89">
-        <f t="shared" si="1"/>
+      <c r="I11" s="57">
+        <f>C11/H11</f>
         <v>39641.185647425897</v>
       </c>
       <c r="J11" s="41">
-        <f t="shared" si="2"/>
+        <f>D11-G11</f>
         <v>-90</v>
       </c>
     </row>
@@ -10545,59 +7042,59 @@
       <c r="G12" s="40">
         <v>0</v>
       </c>
-      <c r="H12" s="89">
-        <f t="shared" si="0"/>
+      <c r="H12" s="57">
+        <f>F12/E12</f>
         <v>5.8575757575757573E-5</v>
       </c>
-      <c r="I12" s="89">
-        <f t="shared" si="1"/>
+      <c r="I12" s="57">
+        <f>C12/H12</f>
         <v>16389.032591826177</v>
       </c>
       <c r="J12" s="41">
-        <f t="shared" si="2"/>
+        <f>D12-G12</f>
         <v>-90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="45">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="44">
-        <v>5.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D13" s="39">
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="E13" s="38">
         <v>15000</v>
       </c>
       <c r="F13" s="39">
-        <v>18.48</v>
+        <v>16.7</v>
       </c>
       <c r="G13" s="40">
-        <v>20</v>
-      </c>
-      <c r="H13" s="89">
-        <f t="shared" si="0"/>
-        <v>1.232E-3</v>
-      </c>
-      <c r="I13" s="89">
-        <f t="shared" si="1"/>
-        <v>4220.7792207792209</v>
+        <v>30</v>
+      </c>
+      <c r="H13" s="57">
+        <f>F13/E13</f>
+        <v>1.1133333333333334E-3</v>
+      </c>
+      <c r="I13" s="57">
+        <f>C13/H13</f>
+        <v>7904.1916167664676</v>
       </c>
       <c r="J13" s="41">
-        <f t="shared" si="2"/>
-        <v>-100</v>
+        <f>D13-G13</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="45">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C14" s="44">
-        <v>2.12</v>
+        <v>5.2</v>
       </c>
       <c r="D14" s="39">
         <v>-80</v>
@@ -10606,286 +7103,281 @@
         <v>15000</v>
       </c>
       <c r="F14" s="39">
-        <v>18.89</v>
+        <v>18.48</v>
       </c>
       <c r="G14" s="40">
         <v>10</v>
       </c>
-      <c r="H14" s="89">
-        <f t="shared" si="0"/>
-        <v>1.2593333333333334E-3</v>
-      </c>
-      <c r="I14" s="89">
-        <f t="shared" si="1"/>
-        <v>1683.4303864478559</v>
+      <c r="H14" s="57">
+        <f>F14/E14</f>
+        <v>1.232E-3</v>
+      </c>
+      <c r="I14" s="57">
+        <f>C14/H14</f>
+        <v>4220.7792207792209</v>
       </c>
       <c r="J14" s="41">
-        <f t="shared" si="2"/>
         <v>-90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="45">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="C15" s="44">
-        <v>0.626</v>
+        <v>2.12</v>
       </c>
       <c r="D15" s="39">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="E15" s="38">
-        <v>390</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="39">
-        <v>0.54600000000000004</v>
+        <v>18.89</v>
       </c>
       <c r="G15" s="40">
-        <v>50</v>
-      </c>
-      <c r="H15" s="89">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="I15" s="89">
-        <f t="shared" si="1"/>
-        <v>447.14285714285705</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="57">
+        <f>F15/E15</f>
+        <v>1.2593333333333334E-3</v>
+      </c>
+      <c r="I15" s="57">
+        <f>C15/H15</f>
+        <v>1683.4303864478559</v>
       </c>
       <c r="J15" s="41">
-        <f t="shared" si="2"/>
+        <f>D15-G15</f>
         <v>-90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="45">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="44">
-        <v>0.34300000000000003</v>
+        <v>1.08</v>
       </c>
       <c r="D16" s="39">
-        <v>-70</v>
+        <v>-79</v>
       </c>
       <c r="E16" s="38">
-        <v>390</v>
+        <v>15000</v>
       </c>
       <c r="F16" s="39">
-        <v>0.8</v>
+        <v>18.2</v>
       </c>
       <c r="G16" s="40">
-        <v>20</v>
-      </c>
-      <c r="H16" s="89">
-        <f t="shared" si="0"/>
-        <v>2.0512820512820513E-3</v>
-      </c>
-      <c r="I16" s="89">
-        <f t="shared" si="1"/>
-        <v>167.21250000000001</v>
+        <v>10</v>
+      </c>
+      <c r="H16" s="57">
+        <f>F16/E16</f>
+        <v>1.2133333333333332E-3</v>
+      </c>
+      <c r="I16" s="57">
+        <f>C16/H16</f>
+        <v>890.10989010989033</v>
       </c>
       <c r="J16" s="41">
-        <f t="shared" si="2"/>
-        <v>-90</v>
+        <f>D16-G16</f>
+        <v>-89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="45">
-        <v>15</v>
+        <v>20000</v>
       </c>
       <c r="C17" s="44">
-        <v>16</v>
+        <v>0.626</v>
       </c>
       <c r="D17" s="39">
-        <v>-32</v>
+        <v>-40</v>
       </c>
       <c r="E17" s="38">
-        <v>330000</v>
+        <v>390</v>
       </c>
       <c r="F17" s="39">
-        <v>10.6</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G17" s="40">
-        <v>54</v>
-      </c>
-      <c r="H17" s="89">
-        <f t="shared" si="0"/>
-        <v>3.2121212121212122E-5</v>
-      </c>
-      <c r="I17" s="89">
-        <f t="shared" si="1"/>
-        <v>498113.20754716982</v>
+        <v>50</v>
+      </c>
+      <c r="H17" s="57">
+        <f>F17/E17</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="I17" s="57">
+        <f>C17/H17</f>
+        <v>447.14285714285705</v>
       </c>
       <c r="J17" s="41">
-        <f t="shared" si="2"/>
-        <v>-86</v>
+        <f>D17-G17</f>
+        <v>-90</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="45">
-        <v>35</v>
+        <v>50000</v>
       </c>
       <c r="C18" s="44">
-        <v>10.5</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D18" s="39">
-        <v>-60</v>
+        <v>-70</v>
       </c>
       <c r="E18" s="38">
-        <v>330000</v>
+        <v>390</v>
       </c>
       <c r="F18" s="39">
-        <v>16.2</v>
+        <v>0.8</v>
       </c>
       <c r="G18" s="40">
-        <v>30</v>
-      </c>
-      <c r="H18" s="89">
-        <f t="shared" si="0"/>
-        <v>4.9090909090909091E-5</v>
-      </c>
-      <c r="I18" s="89">
-        <f t="shared" si="1"/>
-        <v>213888.88888888888</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="57">
+        <f>F18/E18</f>
+        <v>2.0512820512820513E-3</v>
+      </c>
+      <c r="I18" s="57">
+        <f>C18/H18</f>
+        <v>167.21250000000001</v>
       </c>
       <c r="J18" s="41">
-        <f t="shared" si="2"/>
+        <f>D18-G18</f>
         <v>-90</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45">
-        <v>12</v>
+        <v>100000</v>
       </c>
       <c r="C19" s="44">
-        <v>17</v>
+        <v>0.13</v>
       </c>
       <c r="D19" s="39">
-        <v>-28</v>
+        <v>-85</v>
       </c>
       <c r="E19" s="38">
-        <v>330000</v>
+        <v>390</v>
       </c>
       <c r="F19" s="39">
-        <v>8.9</v>
+        <v>0.85</v>
       </c>
       <c r="G19" s="40">
-        <v>60</v>
-      </c>
-      <c r="H19" s="89">
-        <f t="shared" si="0"/>
-        <v>2.6969696969696972E-5</v>
-      </c>
-      <c r="I19" s="89">
-        <f t="shared" si="1"/>
-        <v>630337.07865168538</v>
+        <v>10</v>
+      </c>
+      <c r="H19" s="57">
+        <f>F19/E19</f>
+        <v>2.1794871794871794E-3</v>
+      </c>
+      <c r="I19" s="57">
+        <f>C19/H19</f>
+        <v>59.64705882352942</v>
       </c>
       <c r="J19" s="41">
-        <f t="shared" si="2"/>
-        <v>-88</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
-        <v>27</v>
+        <v>200000</v>
       </c>
       <c r="C20" s="44">
-        <v>12.3</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D20" s="39">
-        <v>-50</v>
+        <v>-26</v>
       </c>
       <c r="E20" s="38">
-        <v>330000</v>
+        <v>22</v>
       </c>
       <c r="F20" s="39">
-        <v>14.8</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G20" s="40">
-        <v>40</v>
-      </c>
-      <c r="H20" s="89">
-        <f t="shared" si="0"/>
-        <v>4.4848484848484849E-5</v>
-      </c>
-      <c r="I20" s="89">
-        <f t="shared" si="1"/>
-        <v>274256.75675675675</v>
+        <v>89</v>
+      </c>
+      <c r="H20" s="57">
+        <f>F20/E20</f>
+        <v>2.3636363636363633E-3</v>
+      </c>
+      <c r="I20" s="57">
+        <f>C20/H20</f>
+        <v>42.730769230769241</v>
       </c>
       <c r="J20" s="41">
-        <f t="shared" si="2"/>
-        <v>-90</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="C21" s="44">
-        <v>0.10100000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D21" s="39">
-        <v>-26</v>
+        <v>-11</v>
       </c>
       <c r="E21" s="38">
         <v>22</v>
       </c>
       <c r="F21" s="39">
-        <v>5.1999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G21" s="40">
-        <v>89</v>
-      </c>
-      <c r="H21" s="89">
-        <f t="shared" si="0"/>
-        <v>2.3636363636363633E-3</v>
-      </c>
-      <c r="I21" s="89">
-        <f t="shared" si="1"/>
-        <v>42.730769230769241</v>
+        <v>110</v>
+      </c>
+      <c r="H21" s="57">
+        <f>F21/E21</f>
+        <v>1.6818181818181817E-3</v>
+      </c>
+      <c r="I21" s="57">
+        <f>C21/H21</f>
+        <v>97.51351351351353</v>
       </c>
       <c r="J21" s="41">
-        <f t="shared" si="2"/>
-        <v>-115</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="C22" s="44">
-        <v>0.16400000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="D22" s="39">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E22" s="38">
         <v>22</v>
       </c>
       <c r="F22" s="39">
-        <v>3.6999999999999998E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G22" s="40">
-        <v>110</v>
-      </c>
-      <c r="H22" s="89">
-        <f t="shared" si="0"/>
-        <v>1.6818181818181817E-3</v>
-      </c>
-      <c r="I22" s="89">
-        <f t="shared" si="1"/>
-        <v>97.51351351351353</v>
+        <v>120</v>
+      </c>
+      <c r="H22" s="57">
+        <f>F22/E22</f>
+        <v>1.5454545454545456E-3</v>
+      </c>
+      <c r="I22" s="57">
+        <f>C22/H22</f>
+        <v>124.88235294117646</v>
       </c>
       <c r="J22" s="41">
-        <f t="shared" si="2"/>
-        <v>-121</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -10908,26 +7400,25 @@
       <c r="G23" s="40">
         <v>130</v>
       </c>
-      <c r="H23" s="89">
-        <f t="shared" si="0"/>
+      <c r="H23" s="57">
+        <f>F23/E23</f>
         <v>1.090909090909091E-3</v>
       </c>
-      <c r="I23" s="89">
-        <f t="shared" si="1"/>
+      <c r="I23" s="57">
+        <f>C23/H23</f>
         <v>166.83333333333331</v>
       </c>
       <c r="J23" s="41">
-        <f t="shared" si="2"/>
-        <v>-140</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
-        <v>750000</v>
+        <v>600000</v>
       </c>
       <c r="C24" s="44">
-        <v>0.33100000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D24" s="39">
         <v>20</v>
@@ -10936,47 +7427,86 @@
         <v>22</v>
       </c>
       <c r="F24" s="39">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G24" s="40">
-        <v>190</v>
-      </c>
-      <c r="H24" s="89">
-        <f t="shared" si="0"/>
-        <v>1.3636363636363635E-3</v>
-      </c>
-      <c r="I24" s="89">
-        <f t="shared" si="1"/>
-        <v>242.73333333333338</v>
+        <v>170</v>
+      </c>
+      <c r="H24" s="57">
+        <f>F24/E24</f>
+        <v>1.2272727272727272E-3</v>
+      </c>
+      <c r="I24" s="57">
+        <f>C24/H24</f>
+        <v>239.55555555555554</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" si="2"/>
-        <v>-170</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="41"/>
+      <c r="B25" s="45">
+        <v>750000</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D25" s="39">
+        <v>20</v>
+      </c>
+      <c r="E25" s="38">
+        <v>22</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="G25" s="40">
+        <v>190</v>
+      </c>
+      <c r="H25" s="57">
+        <f>F25/E25</f>
+        <v>1.3636363636363635E-3</v>
+      </c>
+      <c r="I25" s="57">
+        <f>C25/H25</f>
+        <v>242.73333333333338</v>
+      </c>
+      <c r="J25" s="41">
+        <v>-10</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="41"/>
+      <c r="B26" s="45">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="38">
+        <v>22</v>
+      </c>
+      <c r="F26" s="39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G26" s="40">
+        <v>190</v>
+      </c>
+      <c r="H26" s="57">
+        <f>F26/E26</f>
+        <v>1.2272727272727272E-3</v>
+      </c>
+      <c r="I26" s="57">
+        <f>C26/H26</f>
+        <v>267.2592592592593</v>
+      </c>
+      <c r="J26" s="41">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
@@ -10986,8 +7516,8 @@
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -10998,8 +7528,8 @@
       <c r="E28" s="38"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -11010,8 +7540,8 @@
       <c r="E29" s="38"/>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
       <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -11022,8 +7552,8 @@
       <c r="E30" s="38"/>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -11034,8 +7564,8 @@
       <c r="E31" s="38"/>
       <c r="F31" s="39"/>
       <c r="G31" s="40"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -11046,8 +7576,8 @@
       <c r="E32" s="38"/>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="41"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -11058,8 +7588,8 @@
       <c r="E33" s="38"/>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="41"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -11070,8 +7600,8 @@
       <c r="E34" s="38"/>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
       <c r="J34" s="41"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -11082,8 +7612,8 @@
       <c r="E35" s="38"/>
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11093,8 +7623,8 @@
       <c r="E36" s="38"/>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="41"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -11105,8 +7635,8 @@
       <c r="E37" s="38"/>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="41"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -11117,8 +7647,8 @@
       <c r="E38" s="38"/>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -11129,8 +7659,8 @@
       <c r="E39" s="38"/>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="41"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -11141,20 +7671,14 @@
       <c r="E40" s="38"/>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="89" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="89" t="e">
-        <f>C40/H40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="41"/>
     </row>
   </sheetData>
+  <sortState ref="A3:J26">
+    <sortCondition ref="B3:B26"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
